--- a/italent/documents/analyse/use-cases/student/use_cases_student.xlsx
+++ b/italent/documents/analyse/use-cases/student/use_cases_student.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NVD\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkspaceITalent\italent\documents\analyse\use-cases\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="73">
   <si>
     <t>Naam</t>
   </si>
@@ -222,6 +222,80 @@
   </si>
   <si>
     <t>Project bewerken</t>
+  </si>
+  <si>
+    <t>use case 'Projecten toevoegen' of 'Projecten beheren' wordt uitgevoerd tot en met referentie naar deze use case</t>
+  </si>
+  <si>
+    <t>Subscribertype werd gekozen voor bepaald project</t>
+  </si>
+  <si>
+    <t>1. Systeem toont invoerveld om foto-URL toe te voegen
+2. Gebruiker voert fotolocatie in
+3. Systeem valideert invoer
+4. Systeem geeft controle terug aan parent- use case</t>
+  </si>
+  <si>
+    <t>1. Systeem laad mogelijke categorieen
+2. Gebruiker kieset categorie
+3. Systeem geeft controle terug aan parent- use case</t>
+  </si>
+  <si>
+    <t>1. Systeem toont invoerveld om document-URL toe te voegen
+2. Gebruiker voert documentlocatie in
+3. Systeem valideert invoer
+4. Systeem geeft controle terug aan parent- use case</t>
+  </si>
+  <si>
+    <t>[invoervalidatie mislukt]
+1. Systeem toont melding "URL is niet correct"
+2. Systeem maakt invoer leeg en geeft controle terug aan de gebruiker</t>
+  </si>
+  <si>
+    <t>Document toegevoegd/bewerkt</t>
+  </si>
+  <si>
+    <t>Categorie toegevoegd/bewerkt</t>
+  </si>
+  <si>
+    <t>foto toegevoegd/bewerkt</t>
+  </si>
+  <si>
+    <t>video toegevoegd/bewerkt</t>
+  </si>
+  <si>
+    <t>1. Systeem toont invoerveld om video-URL toe te voegen via youtube
+2. Gebruiker voert videolocatie in
+3. Systeem valideert invoer
+4. Systeem geeft controle terug aan parent- use case</t>
+  </si>
+  <si>
+    <t>1. Systeem toont invoerveld om subscribertype toe te voegen
+2. Gebruiker kiest een type (Health/IT/…)
+3. Systeem geeft controle terug aan parent- use case</t>
+  </si>
+  <si>
+    <t>Bestaand project aanpassen</t>
+  </si>
+  <si>
+    <t>Bestaande PXL student die het project heeft aangemaakt / docent die is ingeschreven voor het project</t>
+  </si>
+  <si>
+    <t>1. Gebruiker druk op een knop op een bestaand project aan te passen
+2. Gebruiker voert een titel, beschrijving, begin- en einddatum in
+3. Gebruiker kiest een categorie (ref. use case 'Categorie kiezen')
+4. Gebruiker voegt eventueel documenten toe (ref. use case 'Documenten toevoegen')
+5. Gebruiker voegt eventueel foto(s) toe (ref. use case 'Foto toevoegen')
+6. Gebruiker voegt eventueel video(s) toe (ref. use case 'Video toevoegen')
+7. Gebruiker voert aantal subscribers in met hun type (ref. use case 'subscribertypes toevoegen')</t>
+  </si>
+  <si>
+    <t>Er werd een bestaand project aangepast</t>
+  </si>
+  <si>
+    <t>[Gebruiker annuleert aanpassing]
+1. Gebruiker klikt op knop 'annuleren'
+2. Systeem laat projectenlijst zien (ref. use case 'Projectenlijst tonen')</t>
   </si>
 </sst>
 </file>
@@ -680,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:D118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="B104" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,25 +1246,33 @@
       <c r="C69" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="5"/>
+      <c r="D69" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="70" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C70" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C71" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="10"/>
+      <c r="D71" s="10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="72" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C72" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="7"/>
+      <c r="D72" s="7" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="73" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C73" s="8" t="s">
@@ -1227,31 +1309,41 @@
       <c r="C78" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="5"/>
+      <c r="D78" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="79" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C79" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="9"/>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C80" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D80" s="10"/>
+      <c r="D80" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C81" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="7"/>
-    </row>
-    <row r="82" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C82" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="11"/>
+      <c r="D82" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="83" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="84" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1282,31 +1374,41 @@
       <c r="C87" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D87" s="5"/>
+      <c r="D87" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C88" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D88" s="9"/>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D88" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C89" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D89" s="10"/>
+      <c r="D89" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C90" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D90" s="7"/>
-    </row>
-    <row r="91" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D90" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C91" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D91" s="11"/>
+      <c r="D91" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="92" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="93" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1337,31 +1439,41 @@
       <c r="C96" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D96" s="5"/>
+      <c r="D96" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C97" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D97" s="9"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D97" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" ht="60" x14ac:dyDescent="0.25">
       <c r="C98" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D98" s="10"/>
+      <c r="D98" s="10" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C99" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="7"/>
-    </row>
-    <row r="100" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D99" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C100" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D100" s="11"/>
+      <c r="D100" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="101" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="102" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1392,25 +1504,33 @@
       <c r="C105" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D105" s="5"/>
+      <c r="D105" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C106" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D106" s="9"/>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D106" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C107" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D107" s="10"/>
+      <c r="D107" s="10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C108" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D108" s="7"/>
+      <c r="D108" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="109" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C109" s="8" t="s">
@@ -1440,38 +1560,48 @@
         <v>2</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C114" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D114" s="5"/>
+      <c r="D114" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C115" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D115" s="9"/>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D115" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4" ht="105" x14ac:dyDescent="0.25">
       <c r="C116" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D116" s="10"/>
+      <c r="D116" s="10" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C117" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D117" s="7"/>
-    </row>
-    <row r="118" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D117" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C118" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D118" s="11"/>
+      <c r="D118" s="11" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/italent/documents/analyse/use-cases/student/use_cases_student.xlsx
+++ b/italent/documents/analyse/use-cases/student/use_cases_student.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
   <si>
     <t>Naam</t>
   </si>
@@ -159,29 +159,6 @@
 3. Systeem toont projecten en de aangemeldde gebruikersgegevens</t>
   </si>
   <si>
-    <t>Project toevoegen</t>
-  </si>
-  <si>
-    <t>Nieuw project toevoegen</t>
-  </si>
-  <si>
-    <t>Er werd een nieuw project toegevoegd</t>
-  </si>
-  <si>
-    <t>[Gebruiker annuleert toevoegen]
-1. Gebruiker klikt op knop 'annuleren'
-2. Systeem laat projectenlijst zien (ref. use case 'Projectenlijst tonen')</t>
-  </si>
-  <si>
-    <t>1. Gebruiker druk op een knop op een nieuw project toe te voegen
-2. Gebruiker voert een titel, beschrijving, begin- en einddatum in
-3. Gebruiker kiest een categorie (ref. use case 'Categorie kiezen')
-4. Gebruiker voegt eventueel documenten toe (ref. use case 'Documenten toevoegen')
-5. Gebruiker voegt eventueel foto(s) toe (ref. use case 'Foto toevoegen')
-6. Gebruiker voegt eventueel video(s) toe (ref. use case 'Video toevoegen')
-7. Gebruiker voert aantal subscribers in met hun type (ref. use case 'subscribertypes toevoegen')</t>
-  </si>
-  <si>
     <t>Aanmelden</t>
   </si>
   <si>
@@ -191,103 +168,10 @@
     <t>use case 'aanmelden' werd successvol afgerond of er is een actieve sessie voor de gebruiker</t>
   </si>
   <si>
-    <t>Gebruiker kiest een category voor het nieuwe project</t>
-  </si>
-  <si>
-    <t>Gebruiker voegt documenten toe aan project</t>
-  </si>
-  <si>
-    <t>Gebruiker voegt videos toe aan project</t>
-  </si>
-  <si>
-    <t>Gebruiker voegt fotos toe aan project</t>
-  </si>
-  <si>
-    <t>Gebruiker voegt subscribertypes toe aan project</t>
-  </si>
-  <si>
-    <t>Documenten bewerken</t>
-  </si>
-  <si>
-    <t>Foto bewerken</t>
-  </si>
-  <si>
-    <t>Video bewerken</t>
-  </si>
-  <si>
-    <t>Subscribertypes bewerken</t>
-  </si>
-  <si>
-    <t>Categorie bewerken</t>
-  </si>
-  <si>
-    <t>Project bewerken</t>
-  </si>
-  <si>
-    <t>use case 'Projecten toevoegen' of 'Projecten beheren' wordt uitgevoerd tot en met referentie naar deze use case</t>
-  </si>
-  <si>
-    <t>Subscribertype werd gekozen voor bepaald project</t>
-  </si>
-  <si>
-    <t>1. Systeem toont invoerveld om foto-URL toe te voegen
-2. Gebruiker voert fotolocatie in
-3. Systeem valideert invoer
-4. Systeem geeft controle terug aan parent- use case</t>
-  </si>
-  <si>
-    <t>1. Systeem laad mogelijke categorieen
-2. Gebruiker kieset categorie
-3. Systeem geeft controle terug aan parent- use case</t>
-  </si>
-  <si>
-    <t>1. Systeem toont invoerveld om document-URL toe te voegen
-2. Gebruiker voert documentlocatie in
-3. Systeem valideert invoer
-4. Systeem geeft controle terug aan parent- use case</t>
-  </si>
-  <si>
-    <t>[invoervalidatie mislukt]
-1. Systeem toont melding "URL is niet correct"
-2. Systeem maakt invoer leeg en geeft controle terug aan de gebruiker</t>
-  </si>
-  <si>
-    <t>Document toegevoegd/bewerkt</t>
-  </si>
-  <si>
-    <t>Categorie toegevoegd/bewerkt</t>
-  </si>
-  <si>
-    <t>foto toegevoegd/bewerkt</t>
-  </si>
-  <si>
-    <t>video toegevoegd/bewerkt</t>
-  </si>
-  <si>
-    <t>1. Systeem toont invoerveld om video-URL toe te voegen via youtube
-2. Gebruiker voert videolocatie in
-3. Systeem valideert invoer
-4. Systeem geeft controle terug aan parent- use case</t>
-  </si>
-  <si>
-    <t>1. Systeem toont invoerveld om subscribertype toe te voegen
-2. Gebruiker kiest een type (Health/IT/…)
-3. Systeem geeft controle terug aan parent- use case</t>
-  </si>
-  <si>
     <t>Bestaand project aanpassen</t>
   </si>
   <si>
     <t>Bestaande PXL student die het project heeft aangemaakt / docent die is ingeschreven voor het project</t>
-  </si>
-  <si>
-    <t>1. Gebruiker druk op een knop op een bestaand project aan te passen
-2. Gebruiker voert een titel, beschrijving, begin- en einddatum in
-3. Gebruiker kiest een categorie (ref. use case 'Categorie kiezen')
-4. Gebruiker voegt eventueel documenten toe (ref. use case 'Documenten toevoegen')
-5. Gebruiker voegt eventueel foto(s) toe (ref. use case 'Foto toevoegen')
-6. Gebruiker voegt eventueel video(s) toe (ref. use case 'Video toevoegen')
-7. Gebruiker voert aantal subscribers in met hun type (ref. use case 'subscribertypes toevoegen')</t>
   </si>
   <si>
     <t>Er werd een bestaand project aangepast</t>
@@ -296,6 +180,18 @@
     <t>[Gebruiker annuleert aanpassing]
 1. Gebruiker klikt op knop 'annuleren'
 2. Systeem laat projectenlijst zien (ref. use case 'Projectenlijst tonen')</t>
+  </si>
+  <si>
+    <t>Project toevoegen/bewerken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Gebruiker druk op een knop op een bestaand project aan te passen
+2. Gebruiker voert een titel, beschrijving, begin- en einddatum in
+3. Gebruiker kiest een categorie
+4. Gebruiker voegt eventueel documenten toe
+5. Gebruiker voegt eventueel foto(s) toe 
+6. Gebruiker voegt eventueel video(s) toe 
+7. Gebruiker voert aantal subscribers in met hun type </t>
   </si>
 </sst>
 </file>
@@ -752,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D118"/>
+  <dimension ref="C2:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B104" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="B57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
@@ -818,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="3:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -867,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -1158,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.25">
@@ -1174,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.25">
@@ -1182,7 +1078,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="3:4" x14ac:dyDescent="0.25">
@@ -1198,7 +1094,7 @@
         <v>5</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="63" spans="3:4" x14ac:dyDescent="0.25">
@@ -1206,7 +1102,7 @@
         <v>6</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="3:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1214,393 +1110,7 @@
         <v>7</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C67" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D67" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C68" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C69" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C70" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C71" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C72" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="11"/>
-    </row>
-    <row r="74" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C76" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D76" s="5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C77" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C78" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C79" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C80" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C81" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C82" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="84" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C84" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C86" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C87" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C88" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C89" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C90" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="91" spans="3:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C91" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="92" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="93" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C96" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C97" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D97" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C98" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C99" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="100" spans="3:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C100" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="101" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C102" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C103" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D103" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C104" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C105" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C106" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="107" spans="3:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C107" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C108" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="109" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C109" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" s="11"/>
-    </row>
-    <row r="110" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="111" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C111" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C112" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D112" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C113" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C114" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C115" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="116" spans="3:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="C116" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D116" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C117" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D117" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="118" spans="3:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C118" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/italent/documents/analyse/use-cases/student/use_cases_student.xlsx
+++ b/italent/documents/analyse/use-cases/student/use_cases_student.xlsx
@@ -9,10 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="10665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="10665" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Algemeen" sheetId="3" r:id="rId1"/>
+    <sheet name="Student" sheetId="1" r:id="rId2"/>
+    <sheet name="Administrator" sheetId="2" r:id="rId3"/>
+    <sheet name="Gast" sheetId="4" r:id="rId4"/>
+    <sheet name="Docent" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
   <si>
     <t>Naam</t>
   </si>
@@ -81,9 +85,6 @@
   <si>
     <t>[Geen projecten beschikbaar]
 1. Systeem laat de melding zien "geen projecten beschikbaar"</t>
-  </si>
-  <si>
-    <t>Projecten sorteren</t>
   </si>
   <si>
     <t>Sorteren van de projecten in de projectenlijst</t>
@@ -168,30 +169,86 @@
     <t>use case 'aanmelden' werd successvol afgerond of er is een actieve sessie voor de gebruiker</t>
   </si>
   <si>
-    <t>Bestaand project aanpassen</t>
-  </si>
-  <si>
-    <t>Bestaande PXL student die het project heeft aangemaakt / docent die is ingeschreven voor het project</t>
-  </si>
-  <si>
-    <t>Er werd een bestaand project aangepast</t>
-  </si>
-  <si>
-    <t>[Gebruiker annuleert aanpassing]
-1. Gebruiker klikt op knop 'annuleren'
-2. Systeem laat projectenlijst zien (ref. use case 'Projectenlijst tonen')</t>
-  </si>
-  <si>
-    <t>Project toevoegen/bewerken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Gebruiker druk op een knop op een bestaand project aan te passen
-2. Gebruiker voert een titel, beschrijving, begin- en einddatum in
-3. Gebruiker kiest een categorie
-4. Gebruiker voegt eventueel documenten toe
-5. Gebruiker voegt eventueel foto(s) toe 
-6. Gebruiker voegt eventueel video(s) toe 
-7. Gebruiker voert aantal subscribers in met hun type </t>
+    <t>Projectenlijst sorteren</t>
+  </si>
+  <si>
+    <t>Categorieen definieren</t>
+  </si>
+  <si>
+    <t>Definieren van categorieen</t>
+  </si>
+  <si>
+    <t>Administrator ziet vernieuwde lijst van categorieen</t>
+  </si>
+  <si>
+    <t>Definieren van gebruikers</t>
+  </si>
+  <si>
+    <t>Bestaande administrator account</t>
+  </si>
+  <si>
+    <t>Gebruikers definieeren</t>
+  </si>
+  <si>
+    <t>1. Administrator opent scherm om gebruikers te bewerken
+2. Administrator voert gebruikers in of bewerkt huidige gebruikers
+3. Administrator druk op de knop 'opslaan'
+4. Systeem bewerkt gebruikers
+5. Systeem haalt vernieuwde gebruikerslijst op</t>
+  </si>
+  <si>
+    <t>1. Administrator opent scherm om categorieen te bewerken
+2. Administrator voert categorieen in of bewerkt huidige categorieen
+2. Administrator druk op de knop 'opslaan'
+3. Systeem bewerkt categorieenlijst
+4. Systeem haalt vernieuwde categorieenlijst op</t>
+  </si>
+  <si>
+    <t>[Administrator annuleert bewerking]
+1. Systeem vraagt bevestiging
+2. Systeem opent lijst van categorieen</t>
+  </si>
+  <si>
+    <t>[Administrator annuleert bewerking]
+1. Systeem vraagt bevestiging
+2. Systeem opent lijst van gebruikers</t>
+  </si>
+  <si>
+    <t>Rollen definieren</t>
+  </si>
+  <si>
+    <t>Definieren van rollen</t>
+  </si>
+  <si>
+    <t>1. Administrator opent scherm om rollen te bewerken
+2. Administrator voert rollen in of bewerkt huidige rollen
+3. Administrator druk op de knop 'opslaan'
+4. Systeem bewerkt rollen
+5. Systeem haalt vernieuwde rollenlijst op</t>
+  </si>
+  <si>
+    <t>[Administrator annuleert bewerking]
+1. Systeem vraagt bevestiging
+2. Systeem opent lijst van rollen</t>
+  </si>
+  <si>
+    <t>Gebruikers verwijderen</t>
+  </si>
+  <si>
+    <t>Verwijderen van gebruikers</t>
+  </si>
+  <si>
+    <t>1. Administrator opent scherm om gebruikers te bewerken
+2. Administrator verwijdert een gebruiker door op de knop 'verwijderen' te klikken
+3. Administrator druk op de knop 'opslaan'
+4. Systeem verwijdert gebruikers
+5. Systeem haalt vernieuwde gebruikerslijst op</t>
+  </si>
+  <si>
+    <t>Administrator ziet vernieuwde lijst van gebruikers</t>
+  </si>
+  <si>
+    <t>Administrator ziet vernieuwde lijst van rollen</t>
   </si>
 </sst>
 </file>
@@ -648,473 +705,1355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D64"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="B57" sqref="A57:XFD57"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:B53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="86" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="213.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="str">
+        <f>Algemeen!A1</f>
+        <v>Naam</v>
+      </c>
+      <c r="C2" s="3" t="str">
+        <f>Algemeen!B1</f>
+        <v>Aanmelden</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="str">
+        <f>Algemeen!A2</f>
+        <v>ID</v>
+      </c>
+      <c r="C3" s="5">
+        <f>Algemeen!B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="str">
+        <f>Algemeen!A3</f>
+        <v>Samenvatting</v>
+      </c>
+      <c r="C4" s="7" t="str">
+        <f>Algemeen!B3</f>
+        <v>Aanmelden op iTalent</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="str">
+        <f>Algemeen!A4</f>
+        <v>Actoren</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f>Algemeen!B4</f>
+        <v>Bestaande PXL student/docent</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="str">
+        <f>Algemeen!A5</f>
+        <v>Preconditie</v>
+      </c>
+      <c r="C6" s="9" t="str">
+        <f>Algemeen!B5</f>
+        <v xml:space="preserve">Loginscherm is zichtbaar
+Gebruiker kent zijn gebruikersnaam en wachtwoord
+</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="str">
+        <f>Algemeen!A6</f>
+        <v>Hoofdscenario</v>
+      </c>
+      <c r="C7" s="10" t="str">
+        <f>Algemeen!B6</f>
+        <v>1. Gebruiker voert gebruikersnaam en wachtwoord in.
+2. Systeem controleert de gegevens
+3. Systeem haalt de gebruikersgegevens op
+3. Systeem toont projecten en de aangemeldde gebruikersgegevens</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="str">
+        <f>Algemeen!A7</f>
+        <v>Postconditie</v>
+      </c>
+      <c r="C8" s="7" t="str">
+        <f>Algemeen!B7</f>
+        <v>Gebruiker is aangemeld en ziet zijn gegevens + er werd een sessie gemaakt voor de gebruiker</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="str">
+        <f>Algemeen!A8</f>
+        <v>Alternatief scenario</v>
+      </c>
+      <c r="C9" s="11" t="str">
+        <f>Algemeen!B8</f>
+        <v>[Logingegevens verkeerd]
+1. iTalent geeft aan dat gegevens incorrect zijn
+2. iTalent geeft de mogelijkheid om de gegevens opnieuw in te voeren
+3. ga verder met stap 2 van het hoofdscenario</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="str">
+        <f>Algemeen!A10</f>
+        <v>Naam</v>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f>Algemeen!B10</f>
+        <v>Projectenlijst tonen</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="str">
+        <f>Algemeen!A11</f>
+        <v>ID</v>
+      </c>
+      <c r="C12" s="5">
+        <f>Algemeen!B11</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="str">
+        <f>Algemeen!A12</f>
+        <v>Samenvatting</v>
+      </c>
+      <c r="C13" s="7" t="str">
+        <f>Algemeen!B12</f>
+        <v>Tonen van projectenlijst</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="str">
+        <f>Algemeen!A13</f>
+        <v>Actoren</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <f>Algemeen!B13</f>
+        <v>Bestaande PXL student/docent</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="str">
+        <f>Algemeen!A14</f>
+        <v>Preconditie</v>
+      </c>
+      <c r="C15" s="9" t="str">
+        <f>Algemeen!B14</f>
+        <v>use case 'aanmelden' werd successvol afgerond of er is een actieve sessie voor de gebruiker</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="str">
+        <f>Algemeen!A15</f>
+        <v>Hoofdscenario</v>
+      </c>
+      <c r="C16" s="10" t="str">
+        <f>Algemeen!B15</f>
+        <v>1. Systeem toont projectenlijst</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="str">
+        <f>Algemeen!A16</f>
+        <v>Postconditie</v>
+      </c>
+      <c r="C17" s="7" t="str">
+        <f>Algemeen!B16</f>
+        <v>Gebruiker ziet een lijst van de projecten</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="str">
+        <f>Algemeen!A17</f>
+        <v>Alternatief scenario</v>
+      </c>
+      <c r="C18" s="11" t="str">
+        <f>Algemeen!B17</f>
+        <v>[Geen projecten beschikbaar]
+1. Systeem laat de melding zien "geen projecten beschikbaar"</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="str">
+        <f>Algemeen!A19</f>
+        <v>Naam</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f>Algemeen!B19</f>
+        <v>Projectenlijst sorteren</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="str">
+        <f>Algemeen!A20</f>
+        <v>ID</v>
+      </c>
+      <c r="C21" s="5">
+        <f>Algemeen!B20</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="6" t="str">
+        <f>Algemeen!A21</f>
+        <v>Samenvatting</v>
+      </c>
+      <c r="C22" s="7" t="str">
+        <f>Algemeen!B21</f>
+        <v>Sorteren van de projecten in de projectenlijst</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="str">
+        <f>Algemeen!A22</f>
+        <v>Actoren</v>
+      </c>
+      <c r="C23" s="5" t="str">
+        <f>Algemeen!B22</f>
+        <v>Bestaande PXL student/docent</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="str">
+        <f>Algemeen!A23</f>
+        <v>Preconditie</v>
+      </c>
+      <c r="C24" s="9" t="str">
+        <f>Algemeen!B23</f>
+        <v>use case 'projectenlijst tonen' werd successvol afgerond.</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="str">
+        <f>Algemeen!A24</f>
+        <v>Hoofdscenario</v>
+      </c>
+      <c r="C25" s="10" t="str">
+        <f>Algemeen!B24</f>
+        <v>1. Gebruiker kiest een sorteerweergave
+2. Systeem sorteert de projecten aan de hand van de gekozen sortering
+3. Gebruiker ziet een gesorteerde lijst</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="str">
+        <f>Algemeen!A25</f>
+        <v>Postconditie</v>
+      </c>
+      <c r="C26" s="7" t="str">
+        <f>Algemeen!B25</f>
+        <v>Gebruiker ziet een lijst van de projecten</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="str">
+        <f>Algemeen!A26</f>
+        <v>Alternatief scenario</v>
+      </c>
+      <c r="C27" s="11" t="str">
+        <f>Algemeen!B26</f>
+        <v>[Geen projecten beschikbaar]
+1. Systeem laat de melding zien "geen projecten beschikbaar"</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="str">
+        <f>Algemeen!A28</f>
+        <v>Naam</v>
+      </c>
+      <c r="C29" s="3" t="str">
+        <f>Algemeen!B28</f>
+        <v>Projecten liken</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="str">
+        <f>Algemeen!A29</f>
+        <v>ID</v>
+      </c>
+      <c r="C30" s="5">
+        <f>Algemeen!B29</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="6" t="str">
+        <f>Algemeen!A30</f>
+        <v>Samenvatting</v>
+      </c>
+      <c r="C31" s="7" t="str">
+        <f>Algemeen!B30</f>
+        <v>liken van de projecten in de projectenlijst</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="str">
+        <f>Algemeen!A31</f>
+        <v>Actoren</v>
+      </c>
+      <c r="C32" s="5" t="str">
+        <f>Algemeen!B31</f>
+        <v>Bestaande PXL student/docent</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="str">
+        <f>Algemeen!A32</f>
+        <v>Preconditie</v>
+      </c>
+      <c r="C33" s="9" t="str">
+        <f>Algemeen!B32</f>
+        <v>use case 'projectenlijst tonen' werd successvol afgerond.</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="str">
+        <f>Algemeen!A33</f>
+        <v>Hoofdscenario</v>
+      </c>
+      <c r="C34" s="10" t="str">
+        <f>Algemeen!B33</f>
+        <v>1. Gebruiker klikt op 'like' bij een bepaald project
+2. Systeem kijkt na of de gebruiker het project reeds geliked heeft
+3. Systeem toont de geupdate pagina met nieuwe aantal likes en melding dat de gebruiker dit project heeft geliked</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="str">
+        <f>Algemeen!A34</f>
+        <v>Postconditie</v>
+      </c>
+      <c r="C35" s="7" t="str">
+        <f>Algemeen!B34</f>
+        <v>Likes van een project zijn geupdatet</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="str">
+        <f>Algemeen!A35</f>
+        <v>Alternatief scenario</v>
+      </c>
+      <c r="C36" s="11" t="str">
+        <f>Algemeen!B35</f>
+        <v>[Gebruiker heeft reeds geliked]
+1. Systeem laat de melding zien "reeds geliked"</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="str">
+        <f>Algemeen!A37</f>
+        <v>Naam</v>
+      </c>
+      <c r="C38" s="3" t="str">
+        <f>Algemeen!B37</f>
+        <v>Projectdetails bekijken</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="str">
+        <f>Algemeen!A38</f>
+        <v>ID</v>
+      </c>
+      <c r="C39" s="5">
+        <f>Algemeen!B38</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="str">
+        <f>Algemeen!A39</f>
+        <v>Samenvatting</v>
+      </c>
+      <c r="C40" s="7" t="str">
+        <f>Algemeen!B39</f>
+        <v>Details van een project bekijken</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="str">
+        <f>Algemeen!A40</f>
+        <v>Actoren</v>
+      </c>
+      <c r="C41" s="5" t="str">
+        <f>Algemeen!B40</f>
+        <v>Bestaande PXL student/docent</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="6" t="str">
+        <f>Algemeen!A41</f>
+        <v>Preconditie</v>
+      </c>
+      <c r="C42" s="9" t="str">
+        <f>Algemeen!B41</f>
+        <v>use case 'projectenlijst tonen' werd successvol afgerond.</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="str">
+        <f>Algemeen!A42</f>
+        <v>Hoofdscenario</v>
+      </c>
+      <c r="C43" s="10" t="str">
+        <f>Algemeen!B42</f>
+        <v>1. Gebruiker klikt op 'meer info' bij een bepaald project
+2. Systeem laad de detailpagina en laatgegevens van het gekozen project zien</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="6" t="str">
+        <f>Algemeen!A43</f>
+        <v>Postconditie</v>
+      </c>
+      <c r="C44" s="7" t="str">
+        <f>Algemeen!B43</f>
+        <v>Gebruiker ziet de detail van een project</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="8" t="str">
+        <f>Algemeen!A44</f>
+        <v>Alternatief scenario</v>
+      </c>
+      <c r="C45" s="11">
+        <f>Algemeen!B44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="str">
+        <f>Algemeen!A46</f>
+        <v>Naam</v>
+      </c>
+      <c r="C47" s="3" t="str">
+        <f>Algemeen!B46</f>
+        <v>Inschrijven op een project</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="str">
+        <f>Algemeen!A47</f>
+        <v>ID</v>
+      </c>
+      <c r="C48" s="5">
+        <f>Algemeen!B47</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="str">
+        <f>Algemeen!A48</f>
+        <v>Samenvatting</v>
+      </c>
+      <c r="C49" s="7" t="str">
+        <f>Algemeen!B48</f>
+        <v>Inschrijven op een bepaald project</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="str">
+        <f>Algemeen!A49</f>
+        <v>Actoren</v>
+      </c>
+      <c r="C50" s="5" t="str">
+        <f>Algemeen!B49</f>
+        <v>Bestaande PXL student/docent</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="str">
+        <f>Algemeen!A50</f>
+        <v>Preconditie</v>
+      </c>
+      <c r="C51" s="9" t="str">
+        <f>Algemeen!B50</f>
+        <v>use case 'projectenlijst tonen' of 'projectdetails bekijken' werd successvol afgerond.</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="B52" s="4" t="str">
+        <f>Algemeen!A51</f>
+        <v>Hoofdscenario</v>
+      </c>
+      <c r="C52" s="10" t="str">
+        <f>Algemeen!B51</f>
+        <v>1. Gebruiker klikt 'inschrijven' bij een bepaald project
+2. Systeem controleert of de gebruiker kan inschrijven voor dit project
+3. Systeem vraagt om bevestiging
+4. Systeem voegt gebruiker toe aan het project
+5. Systeem toont melding aan de gebruiker: 'succesvol toegevoegd'</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="6" t="str">
+        <f>Algemeen!A52</f>
+        <v>Postconditie</v>
+      </c>
+      <c r="C53" s="7" t="str">
+        <f>Algemeen!B52</f>
+        <v>Gebruiker is inschreven op een project</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="8" t="str">
+        <f>Algemeen!A53</f>
+        <v>Alternatief scenario</v>
+      </c>
+      <c r="C54" s="11" t="str">
+        <f>Algemeen!B53</f>
+        <v>[Gebruiker is reeds ingeschreven op een ander project]
+1. Systeem laat melding zien: 'u bent reeds ingescrheven op een ander project'
+[Gebruiker kan niet toegevoegd worden aan het project]
+2. Systeem laat melding zien: 'u kan niet inschrijven voor dit project'</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <f>Algemeen!B54</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:D45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="104.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="188" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="2" t="s">
+    <row r="1" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="str">
+        <f>Algemeen!A1</f>
+        <v>Naam</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>Algemeen!B1</f>
+        <v>Aanmelden</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="4" t="str">
+        <f>Algemeen!A2</f>
+        <v>ID</v>
+      </c>
+      <c r="D3" s="5">
+        <f>Algemeen!B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="str">
+        <f>Algemeen!A3</f>
+        <v>Samenvatting</v>
+      </c>
+      <c r="D4" s="7" t="str">
+        <f>Algemeen!B3</f>
+        <v>Aanmelden op iTalent</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="str">
+        <f>Algemeen!A4</f>
+        <v>Actoren</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f>Algemeen!B4</f>
+        <v>Bestaande PXL student/docent</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C6" s="6" t="str">
+        <f>Algemeen!A5</f>
+        <v>Preconditie</v>
+      </c>
+      <c r="D6" s="9" t="str">
+        <f>Algemeen!B5</f>
+        <v xml:space="preserve">Loginscherm is zichtbaar
+Gebruiker kent zijn gebruikersnaam en wachtwoord
+</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="C7" s="4" t="str">
+        <f>Algemeen!A6</f>
+        <v>Hoofdscenario</v>
+      </c>
+      <c r="D7" s="10" t="str">
+        <f>Algemeen!B6</f>
+        <v>1. Gebruiker voert gebruikersnaam en wachtwoord in.
+2. Systeem controleert de gegevens
+3. Systeem haalt de gebruikersgegevens op
+3. Systeem toont projecten en de aangemeldde gebruikersgegevens</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="str">
+        <f>Algemeen!A7</f>
+        <v>Postconditie</v>
+      </c>
+      <c r="D8" s="7" t="str">
+        <f>Algemeen!B7</f>
+        <v>Gebruiker is aangemeld en ziet zijn gegevens + er werd een sessie gemaakt voor de gebruiker</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="8" t="str">
+        <f>Algemeen!A8</f>
+        <v>Alternatief scenario</v>
+      </c>
+      <c r="D9" s="11" t="str">
+        <f>Algemeen!B8</f>
+        <v>[Logingegevens verkeerd]
+1. iTalent geeft aan dat gegevens incorrect zijn
+2. iTalent geeft de mogelijkheid om de gegevens opnieuw in te voeren
+3. ga verder met stap 2 van het hoofdscenario</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="4" t="s">
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D12" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="6" t="s">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="4" t="s">
+      <c r="D13" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C7" s="6" t="s">
+      <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C8" s="4" t="s">
+      <c r="D15" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="6" t="s">
+      <c r="D16" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D17" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="3:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="8" t="s">
+    <row r="25" spans="3:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="2" t="s">
+      <c r="D27" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
+      <c r="D29" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D30" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="6" t="s">
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
+      <c r="D31" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="6" t="s">
+      <c r="D32" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="4" t="s">
+      <c r="D33" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C34" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="6" t="s">
+      <c r="D34" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="8" t="s">
+      <c r="D35" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="2" t="s">
+      <c r="D36" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="4" t="s">
+      <c r="D38" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D39" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="6" t="s">
+      <c r="D41" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C26" s="4" t="s">
+      <c r="D42" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="C43" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="6" t="s">
+      <c r="D43" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="8" t="s">
+      <c r="D44" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="C35" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D40" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="C44" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="11"/>
-    </row>
-    <row r="47" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="C53" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4" ht="105" x14ac:dyDescent="0.25">
-      <c r="C62" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>43</v>
+      <c r="D45" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/italent/documents/analyse/use-cases/student/use_cases_student.xlsx
+++ b/italent/documents/analyse/use-cases/student/use_cases_student.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="10665" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14190" windowHeight="10665" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Algemeen" sheetId="3" r:id="rId1"/>
     <sheet name="Student" sheetId="1" r:id="rId2"/>
-    <sheet name="Administrator" sheetId="2" r:id="rId3"/>
-    <sheet name="Gast" sheetId="4" r:id="rId4"/>
-    <sheet name="Docent" sheetId="5" r:id="rId5"/>
+    <sheet name="Docent" sheetId="5" r:id="rId3"/>
+    <sheet name="Administrator" sheetId="2" r:id="rId4"/>
+    <sheet name="Gast" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="86">
   <si>
     <t>Naam</t>
   </si>
@@ -249,6 +249,106 @@
   </si>
   <si>
     <t>Administrator ziet vernieuwde lijst van rollen</t>
+  </si>
+  <si>
+    <t>Projecten aanmaken</t>
+  </si>
+  <si>
+    <t>Project aanmaken</t>
+  </si>
+  <si>
+    <t>Bestaande PXL student</t>
+  </si>
+  <si>
+    <t>Er werd een nieuw project aangemaakt</t>
+  </si>
+  <si>
+    <t>1. Gebruiker klikt 'aanmaken'
+2. Systeem navigeert naar een de pagina waarop de gebruiker een pagina om projectdetails in te voeren
+3. Gebruiker voert projectgegevens in
+4. Gebruiker klikt op 'opslaan'
+5. Systeem controlleert gegevens
+6. Systeem slaat de gevens
+7. Systeem toont melding 'successvol opgeslaan'</t>
+  </si>
+  <si>
+    <t>[Gegevens niet goed gevalideert]
+1. Systeem laat melding zien waarom de validatie mislukt</t>
+  </si>
+  <si>
+    <t>Projecten beheren</t>
+  </si>
+  <si>
+    <t>Afgeronde projecten tonen</t>
+  </si>
+  <si>
+    <t>Tonen van afgeronde projectenlijst</t>
+  </si>
+  <si>
+    <t>1. Gebruiker kiest voor 'afgeronde projecten bekijken'
+2. Systeem toont projectenlijst van afgeronde projecten</t>
+  </si>
+  <si>
+    <t>Gebruiker ziet een lijst van de afgeronde projecten</t>
+  </si>
+  <si>
+    <t>Eigen projecten verwijderen</t>
+  </si>
+  <si>
+    <t>1. Gebruiker klikt 'eigen projecten bekijken'
+2. Systeem navigeert naar de pagina 'eigen projecten beheren'
+3. Gebruiker kiest voor 'project verwijderen'
+4. Systeem kijkt of dit een geverifieerd project is, zo niet kan het project verwijderd worden
+5. Systeem verwijdert project
+6. Systeem toont nieuwe lijst van de eigen projecten</t>
+  </si>
+  <si>
+    <t>Er werd een project verwijderd</t>
+  </si>
+  <si>
+    <t>[Project is reeds gevalideert]
+1. Systeem toont melding: 'gevalideerde projecten kunnen niet meer verwijderd worden'</t>
+  </si>
+  <si>
+    <t>Projecten volgen</t>
+  </si>
+  <si>
+    <t>Tonen van projecten waarop de gebruiker gesubscribed is</t>
+  </si>
+  <si>
+    <t>1. Gebruiker kiest voor 'huidige projecten bekijken'
+2. Systeem toont projectenlijst waarop de gebruiker gesubscribed is</t>
+  </si>
+  <si>
+    <t>Bestaande PXL docent</t>
+  </si>
+  <si>
+    <t>Projecten goedkeuren</t>
+  </si>
+  <si>
+    <t>Goedkeuren van projecten</t>
+  </si>
+  <si>
+    <t>1. Gebruiker klikt op de knop 'verifieren'
+2. Systeem zet de status van het project op 'geverifieerd'
+3. Systeem navigeert naar de projectenlijst</t>
+  </si>
+  <si>
+    <t>Gebruiker ziet een lijst van de lopende projecten</t>
+  </si>
+  <si>
+    <t>Projecten publiek maken</t>
+  </si>
+  <si>
+    <t>Publiek stellen van projecten</t>
+  </si>
+  <si>
+    <t>1. Gebruiker klikt op de knop 'publiek maken'
+2. Systeem zet de status van het project op 'publiek'
+3. Systeem navigeert naar de projectenlijst</t>
+  </si>
+  <si>
+    <t>Gebruiker ziet een lijst van de projecten waarvan de status op 'publiek' staat</t>
   </si>
 </sst>
 </file>
@@ -705,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection sqref="A1:B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,6 +1214,136 @@
         <v>34</v>
       </c>
     </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1121,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C55"/>
+  <dimension ref="B1:C99"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,10 +1882,368 @@
 2. Systeem laat melding zien: 'u kan niet inschrijven voor dit project'</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C55">
         <f>Algemeen!B54</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="B61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="B70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="str">
+        <f>Algemeen!A55</f>
+        <v>Naam</v>
+      </c>
+      <c r="C74" s="3" t="str">
+        <f>Algemeen!B55</f>
+        <v>Afgeronde projecten tonen</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="4" t="str">
+        <f>Algemeen!A56</f>
+        <v>ID</v>
+      </c>
+      <c r="C75" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="6" t="str">
+        <f>Algemeen!A57</f>
+        <v>Samenvatting</v>
+      </c>
+      <c r="C76" s="7" t="str">
+        <f>Algemeen!B57</f>
+        <v>Tonen van afgeronde projectenlijst</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="str">
+        <f>Algemeen!A58</f>
+        <v>Actoren</v>
+      </c>
+      <c r="C77" s="5" t="str">
+        <f>Algemeen!B58</f>
+        <v>Bestaande PXL student/docent</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="str">
+        <f>Algemeen!A59</f>
+        <v>Preconditie</v>
+      </c>
+      <c r="C78" s="9" t="str">
+        <f>Algemeen!B59</f>
+        <v>use case 'aanmelden' werd successvol afgerond of er is een actieve sessie voor de gebruiker</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" s="4" t="str">
+        <f>Algemeen!A60</f>
+        <v>Hoofdscenario</v>
+      </c>
+      <c r="C79" s="10" t="str">
+        <f>Algemeen!B60</f>
+        <v>1. Gebruiker kiest voor 'afgeronde projecten bekijken'
+2. Systeem toont projectenlijst van afgeronde projecten</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="6" t="str">
+        <f>Algemeen!A61</f>
+        <v>Postconditie</v>
+      </c>
+      <c r="C80" s="7" t="str">
+        <f>Algemeen!B61</f>
+        <v>Gebruiker ziet een lijst van de afgeronde projecten</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="8" t="str">
+        <f>Algemeen!A62</f>
+        <v>Alternatief scenario</v>
+      </c>
+      <c r="C81" s="11" t="str">
+        <f>Algemeen!B62</f>
+        <v>[Geen projecten beschikbaar]
+1. Systeem laat de melding zien "geen projecten beschikbaar"</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="B88" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="2" t="str">
+        <f>Algemeen!A64</f>
+        <v>Naam</v>
+      </c>
+      <c r="C92" s="3" t="str">
+        <f>Algemeen!B64</f>
+        <v>Projecten volgen</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="4" t="str">
+        <f>Algemeen!A65</f>
+        <v>ID</v>
+      </c>
+      <c r="C93" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="6" t="str">
+        <f>Algemeen!A66</f>
+        <v>Samenvatting</v>
+      </c>
+      <c r="C94" s="7" t="str">
+        <f>Algemeen!B66</f>
+        <v>Tonen van projecten waarop de gebruiker gesubscribed is</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="str">
+        <f>Algemeen!A67</f>
+        <v>Actoren</v>
+      </c>
+      <c r="C95" s="5" t="str">
+        <f>Algemeen!B67</f>
+        <v>Bestaande PXL student/docent</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="str">
+        <f>Algemeen!A68</f>
+        <v>Preconditie</v>
+      </c>
+      <c r="C96" s="9" t="str">
+        <f>Algemeen!B68</f>
+        <v>use case 'aanmelden' werd successvol afgerond of er is een actieve sessie voor de gebruiker</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B97" s="4" t="str">
+        <f>Algemeen!A69</f>
+        <v>Hoofdscenario</v>
+      </c>
+      <c r="C97" s="10" t="str">
+        <f>Algemeen!B69</f>
+        <v>1. Gebruiker kiest voor 'huidige projecten bekijken'
+2. Systeem toont projectenlijst waarop de gebruiker gesubscribed is</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="str">
+        <f>Algemeen!A70</f>
+        <v>Postconditie</v>
+      </c>
+      <c r="C98" s="7" t="str">
+        <f>Algemeen!B70</f>
+        <v>Gebruiker ziet een lijst van de afgeronde projecten</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="8" t="str">
+        <f>Algemeen!A71</f>
+        <v>Alternatief scenario</v>
+      </c>
+      <c r="C99" s="11" t="str">
+        <f>Algemeen!B71</f>
+        <v>[Geen projecten beschikbaar]
+1. Systeem laat de melding zien "geen projecten beschikbaar"</v>
       </c>
     </row>
   </sheetData>
@@ -1666,10 +2254,843 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B89"/>
+  <sheetViews>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="105.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="str">
+        <f>Algemeen!A1</f>
+        <v>Naam</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <f>Algemeen!B1</f>
+        <v>Aanmelden</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="str">
+        <f>Algemeen!A2</f>
+        <v>ID</v>
+      </c>
+      <c r="B2" s="5">
+        <f>Algemeen!B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="str">
+        <f>Algemeen!A3</f>
+        <v>Samenvatting</v>
+      </c>
+      <c r="B3" s="7" t="str">
+        <f>Algemeen!B3</f>
+        <v>Aanmelden op iTalent</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
+        <f>Algemeen!A4</f>
+        <v>Actoren</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f>Algemeen!B4</f>
+        <v>Bestaande PXL student/docent</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="str">
+        <f>Algemeen!A5</f>
+        <v>Preconditie</v>
+      </c>
+      <c r="B5" s="9" t="str">
+        <f>Algemeen!B5</f>
+        <v xml:space="preserve">Loginscherm is zichtbaar
+Gebruiker kent zijn gebruikersnaam en wachtwoord
+</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
+        <f>Algemeen!A6</f>
+        <v>Hoofdscenario</v>
+      </c>
+      <c r="B6" s="10" t="str">
+        <f>Algemeen!B6</f>
+        <v>1. Gebruiker voert gebruikersnaam en wachtwoord in.
+2. Systeem controleert de gegevens
+3. Systeem haalt de gebruikersgegevens op
+3. Systeem toont projecten en de aangemeldde gebruikersgegevens</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="str">
+        <f>Algemeen!A7</f>
+        <v>Postconditie</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f>Algemeen!B7</f>
+        <v>Gebruiker is aangemeld en ziet zijn gegevens + er werd een sessie gemaakt voor de gebruiker</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="str">
+        <f>Algemeen!A8</f>
+        <v>Alternatief scenario</v>
+      </c>
+      <c r="B8" s="11" t="str">
+        <f>Algemeen!B8</f>
+        <v>[Logingegevens verkeerd]
+1. iTalent geeft aan dat gegevens incorrect zijn
+2. iTalent geeft de mogelijkheid om de gegevens opnieuw in te voeren
+3. ga verder met stap 2 van het hoofdscenario</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="str">
+        <f>Algemeen!A10</f>
+        <v>Naam</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f>Algemeen!B10</f>
+        <v>Projectenlijst tonen</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="str">
+        <f>Algemeen!A11</f>
+        <v>ID</v>
+      </c>
+      <c r="B11" s="5">
+        <f>Algemeen!B11</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="str">
+        <f>Algemeen!A12</f>
+        <v>Samenvatting</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f>Algemeen!B12</f>
+        <v>Tonen van projectenlijst</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="str">
+        <f>Algemeen!A13</f>
+        <v>Actoren</v>
+      </c>
+      <c r="B13" s="5" t="str">
+        <f>Algemeen!B13</f>
+        <v>Bestaande PXL student/docent</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="str">
+        <f>Algemeen!A14</f>
+        <v>Preconditie</v>
+      </c>
+      <c r="B14" s="9" t="str">
+        <f>Algemeen!B14</f>
+        <v>use case 'aanmelden' werd successvol afgerond of er is een actieve sessie voor de gebruiker</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="str">
+        <f>Algemeen!A15</f>
+        <v>Hoofdscenario</v>
+      </c>
+      <c r="B15" s="10" t="str">
+        <f>Algemeen!B15</f>
+        <v>1. Systeem toont projectenlijst</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="str">
+        <f>Algemeen!A16</f>
+        <v>Postconditie</v>
+      </c>
+      <c r="B16" s="7" t="str">
+        <f>Algemeen!B16</f>
+        <v>Gebruiker ziet een lijst van de projecten</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="str">
+        <f>Algemeen!A17</f>
+        <v>Alternatief scenario</v>
+      </c>
+      <c r="B17" s="11" t="str">
+        <f>Algemeen!B17</f>
+        <v>[Geen projecten beschikbaar]
+1. Systeem laat de melding zien "geen projecten beschikbaar"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="str">
+        <f>Algemeen!A19</f>
+        <v>Naam</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f>Algemeen!B19</f>
+        <v>Projectenlijst sorteren</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="str">
+        <f>Algemeen!A20</f>
+        <v>ID</v>
+      </c>
+      <c r="B20" s="5">
+        <f>Algemeen!B20</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="str">
+        <f>Algemeen!A21</f>
+        <v>Samenvatting</v>
+      </c>
+      <c r="B21" s="7" t="str">
+        <f>Algemeen!B21</f>
+        <v>Sorteren van de projecten in de projectenlijst</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="str">
+        <f>Algemeen!A22</f>
+        <v>Actoren</v>
+      </c>
+      <c r="B22" s="5" t="str">
+        <f>Algemeen!B22</f>
+        <v>Bestaande PXL student/docent</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="str">
+        <f>Algemeen!A23</f>
+        <v>Preconditie</v>
+      </c>
+      <c r="B23" s="9" t="str">
+        <f>Algemeen!B23</f>
+        <v>use case 'projectenlijst tonen' werd successvol afgerond.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="str">
+        <f>Algemeen!A24</f>
+        <v>Hoofdscenario</v>
+      </c>
+      <c r="B24" s="10" t="str">
+        <f>Algemeen!B24</f>
+        <v>1. Gebruiker kiest een sorteerweergave
+2. Systeem sorteert de projecten aan de hand van de gekozen sortering
+3. Gebruiker ziet een gesorteerde lijst</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="str">
+        <f>Algemeen!A25</f>
+        <v>Postconditie</v>
+      </c>
+      <c r="B25" s="7" t="str">
+        <f>Algemeen!B25</f>
+        <v>Gebruiker ziet een lijst van de projecten</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="str">
+        <f>Algemeen!A26</f>
+        <v>Alternatief scenario</v>
+      </c>
+      <c r="B26" s="11" t="str">
+        <f>Algemeen!B26</f>
+        <v>[Geen projecten beschikbaar]
+1. Systeem laat de melding zien "geen projecten beschikbaar"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="str">
+        <f>Algemeen!A28</f>
+        <v>Naam</v>
+      </c>
+      <c r="B28" s="3" t="str">
+        <f>Algemeen!B28</f>
+        <v>Projecten liken</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="str">
+        <f>Algemeen!A29</f>
+        <v>ID</v>
+      </c>
+      <c r="B29" s="5">
+        <f>Algemeen!B29</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="str">
+        <f>Algemeen!A30</f>
+        <v>Samenvatting</v>
+      </c>
+      <c r="B30" s="7" t="str">
+        <f>Algemeen!B30</f>
+        <v>liken van de projecten in de projectenlijst</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="str">
+        <f>Algemeen!A31</f>
+        <v>Actoren</v>
+      </c>
+      <c r="B31" s="5" t="str">
+        <f>Algemeen!B31</f>
+        <v>Bestaande PXL student/docent</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="str">
+        <f>Algemeen!A32</f>
+        <v>Preconditie</v>
+      </c>
+      <c r="B32" s="9" t="str">
+        <f>Algemeen!B32</f>
+        <v>use case 'projectenlijst tonen' werd successvol afgerond.</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="str">
+        <f>Algemeen!A33</f>
+        <v>Hoofdscenario</v>
+      </c>
+      <c r="B33" s="10" t="str">
+        <f>Algemeen!B33</f>
+        <v>1. Gebruiker klikt op 'like' bij een bepaald project
+2. Systeem kijkt na of de gebruiker het project reeds geliked heeft
+3. Systeem toont de geupdate pagina met nieuwe aantal likes en melding dat de gebruiker dit project heeft geliked</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="str">
+        <f>Algemeen!A34</f>
+        <v>Postconditie</v>
+      </c>
+      <c r="B34" s="7" t="str">
+        <f>Algemeen!B34</f>
+        <v>Likes van een project zijn geupdatet</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="str">
+        <f>Algemeen!A35</f>
+        <v>Alternatief scenario</v>
+      </c>
+      <c r="B35" s="11" t="str">
+        <f>Algemeen!B35</f>
+        <v>[Gebruiker heeft reeds geliked]
+1. Systeem laat de melding zien "reeds geliked"</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="str">
+        <f>Algemeen!A37</f>
+        <v>Naam</v>
+      </c>
+      <c r="B37" s="3" t="str">
+        <f>Algemeen!B37</f>
+        <v>Projectdetails bekijken</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="str">
+        <f>Algemeen!A38</f>
+        <v>ID</v>
+      </c>
+      <c r="B38" s="5">
+        <f>Algemeen!B38</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="str">
+        <f>Algemeen!A39</f>
+        <v>Samenvatting</v>
+      </c>
+      <c r="B39" s="7" t="str">
+        <f>Algemeen!B39</f>
+        <v>Details van een project bekijken</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="str">
+        <f>Algemeen!A40</f>
+        <v>Actoren</v>
+      </c>
+      <c r="B40" s="5" t="str">
+        <f>Algemeen!B40</f>
+        <v>Bestaande PXL student/docent</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="str">
+        <f>Algemeen!A41</f>
+        <v>Preconditie</v>
+      </c>
+      <c r="B41" s="9" t="str">
+        <f>Algemeen!B41</f>
+        <v>use case 'projectenlijst tonen' werd successvol afgerond.</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="str">
+        <f>Algemeen!A42</f>
+        <v>Hoofdscenario</v>
+      </c>
+      <c r="B42" s="10" t="str">
+        <f>Algemeen!B42</f>
+        <v>1. Gebruiker klikt op 'meer info' bij een bepaald project
+2. Systeem laad de detailpagina en laatgegevens van het gekozen project zien</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="str">
+        <f>Algemeen!A43</f>
+        <v>Postconditie</v>
+      </c>
+      <c r="B43" s="7" t="str">
+        <f>Algemeen!B43</f>
+        <v>Gebruiker ziet de detail van een project</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="str">
+        <f>Algemeen!A44</f>
+        <v>Alternatief scenario</v>
+      </c>
+      <c r="B44" s="11">
+        <f>Algemeen!B44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="str">
+        <f>Algemeen!A46</f>
+        <v>Naam</v>
+      </c>
+      <c r="B46" s="3" t="str">
+        <f>Algemeen!B46</f>
+        <v>Inschrijven op een project</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="str">
+        <f>Algemeen!A47</f>
+        <v>ID</v>
+      </c>
+      <c r="B47" s="5">
+        <f>Algemeen!B47</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="str">
+        <f>Algemeen!A48</f>
+        <v>Samenvatting</v>
+      </c>
+      <c r="B48" s="7" t="str">
+        <f>Algemeen!B48</f>
+        <v>Inschrijven op een bepaald project</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="str">
+        <f>Algemeen!A49</f>
+        <v>Actoren</v>
+      </c>
+      <c r="B49" s="5" t="str">
+        <f>Algemeen!B49</f>
+        <v>Bestaande PXL student/docent</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="str">
+        <f>Algemeen!A50</f>
+        <v>Preconditie</v>
+      </c>
+      <c r="B50" s="9" t="str">
+        <f>Algemeen!B50</f>
+        <v>use case 'projectenlijst tonen' of 'projectdetails bekijken' werd successvol afgerond.</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="str">
+        <f>Algemeen!A51</f>
+        <v>Hoofdscenario</v>
+      </c>
+      <c r="B51" s="10" t="str">
+        <f>Algemeen!B51</f>
+        <v>1. Gebruiker klikt 'inschrijven' bij een bepaald project
+2. Systeem controleert of de gebruiker kan inschrijven voor dit project
+3. Systeem vraagt om bevestiging
+4. Systeem voegt gebruiker toe aan het project
+5. Systeem toont melding aan de gebruiker: 'succesvol toegevoegd'</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="str">
+        <f>Algemeen!A52</f>
+        <v>Postconditie</v>
+      </c>
+      <c r="B52" s="7" t="str">
+        <f>Algemeen!B52</f>
+        <v>Gebruiker is inschreven op een project</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="str">
+        <f>Algemeen!A53</f>
+        <v>Alternatief scenario</v>
+      </c>
+      <c r="B53" s="11" t="str">
+        <f>Algemeen!B53</f>
+        <v>[Gebruiker is reeds ingeschreven op een ander project]
+1. Systeem laat melding zien: 'u bent reeds ingescrheven op een ander project'
+[Gebruiker kan niet toegevoegd worden aan het project]
+2. Systeem laat melding zien: 'u kan niet inschrijven voor dit project'</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="str">
+        <f>Algemeen!A55</f>
+        <v>Naam</v>
+      </c>
+      <c r="B55" s="3" t="str">
+        <f>Algemeen!B55</f>
+        <v>Afgeronde projecten tonen</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="str">
+        <f>Algemeen!A56</f>
+        <v>ID</v>
+      </c>
+      <c r="B56" s="5">
+        <f>Algemeen!B56</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="str">
+        <f>Algemeen!A57</f>
+        <v>Samenvatting</v>
+      </c>
+      <c r="B57" s="7" t="str">
+        <f>Algemeen!B57</f>
+        <v>Tonen van afgeronde projectenlijst</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="str">
+        <f>Algemeen!A58</f>
+        <v>Actoren</v>
+      </c>
+      <c r="B58" s="5" t="str">
+        <f>Algemeen!B58</f>
+        <v>Bestaande PXL student/docent</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="str">
+        <f>Algemeen!A59</f>
+        <v>Preconditie</v>
+      </c>
+      <c r="B59" s="9" t="str">
+        <f>Algemeen!B59</f>
+        <v>use case 'aanmelden' werd successvol afgerond of er is een actieve sessie voor de gebruiker</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="str">
+        <f>Algemeen!A60</f>
+        <v>Hoofdscenario</v>
+      </c>
+      <c r="B60" s="10" t="str">
+        <f>Algemeen!B60</f>
+        <v>1. Gebruiker kiest voor 'afgeronde projecten bekijken'
+2. Systeem toont projectenlijst van afgeronde projecten</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="str">
+        <f>Algemeen!A61</f>
+        <v>Postconditie</v>
+      </c>
+      <c r="B61" s="7" t="str">
+        <f>Algemeen!B61</f>
+        <v>Gebruiker ziet een lijst van de afgeronde projecten</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="str">
+        <f>Algemeen!A62</f>
+        <v>Alternatief scenario</v>
+      </c>
+      <c r="B62" s="11" t="str">
+        <f>Algemeen!B62</f>
+        <v>[Geen projecten beschikbaar]
+1. Systeem laat de melding zien "geen projecten beschikbaar"</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="str">
+        <f>Algemeen!A64</f>
+        <v>Naam</v>
+      </c>
+      <c r="B64" s="3" t="str">
+        <f>Algemeen!B64</f>
+        <v>Projecten volgen</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="str">
+        <f>Algemeen!A65</f>
+        <v>ID</v>
+      </c>
+      <c r="B65" s="5">
+        <f>Algemeen!B65</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="str">
+        <f>Algemeen!A66</f>
+        <v>Samenvatting</v>
+      </c>
+      <c r="B66" s="7" t="str">
+        <f>Algemeen!B66</f>
+        <v>Tonen van projecten waarop de gebruiker gesubscribed is</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="str">
+        <f>Algemeen!A67</f>
+        <v>Actoren</v>
+      </c>
+      <c r="B67" s="5" t="str">
+        <f>Algemeen!B67</f>
+        <v>Bestaande PXL student/docent</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="str">
+        <f>Algemeen!A68</f>
+        <v>Preconditie</v>
+      </c>
+      <c r="B68" s="9" t="str">
+        <f>Algemeen!B68</f>
+        <v>use case 'aanmelden' werd successvol afgerond of er is een actieve sessie voor de gebruiker</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="str">
+        <f>Algemeen!A69</f>
+        <v>Hoofdscenario</v>
+      </c>
+      <c r="B69" s="10" t="str">
+        <f>Algemeen!B69</f>
+        <v>1. Gebruiker kiest voor 'huidige projecten bekijken'
+2. Systeem toont projectenlijst waarop de gebruiker gesubscribed is</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="str">
+        <f>Algemeen!A70</f>
+        <v>Postconditie</v>
+      </c>
+      <c r="B70" s="7" t="str">
+        <f>Algemeen!B70</f>
+        <v>Gebruiker ziet een lijst van de afgeronde projecten</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="8" t="str">
+        <f>Algemeen!A71</f>
+        <v>Alternatief scenario</v>
+      </c>
+      <c r="B71" s="11" t="str">
+        <f>Algemeen!B71</f>
+        <v>[Geen projecten beschikbaar]
+1. Systeem laat de melding zien "geen projecten beschikbaar"</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,7 +3202,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
@@ -1911,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
@@ -1976,7 +3397,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
@@ -2028,32 +3449,104 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="str">
+        <f>Algemeen!A10</f>
+        <v>Naam</v>
+      </c>
+      <c r="B1" s="3" t="str">
+        <f>Algemeen!B10</f>
+        <v>Projectenlijst tonen</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="str">
+        <f>Algemeen!A11</f>
+        <v>ID</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="str">
+        <f>Algemeen!A12</f>
+        <v>Samenvatting</v>
+      </c>
+      <c r="B3" s="7" t="str">
+        <f>Algemeen!B12</f>
+        <v>Tonen van projectenlijst</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="str">
+        <f>Algemeen!A13</f>
+        <v>Actoren</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f>Algemeen!B13</f>
+        <v>Bestaande PXL student/docent</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="str">
+        <f>Algemeen!A14</f>
+        <v>Preconditie</v>
+      </c>
+      <c r="B5" s="9" t="str">
+        <f>Algemeen!B14</f>
+        <v>use case 'aanmelden' werd successvol afgerond of er is een actieve sessie voor de gebruiker</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="str">
+        <f>Algemeen!A15</f>
+        <v>Hoofdscenario</v>
+      </c>
+      <c r="B6" s="10" t="str">
+        <f>Algemeen!B15</f>
+        <v>1. Systeem toont projectenlijst</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="str">
+        <f>Algemeen!A16</f>
+        <v>Postconditie</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="str">
+        <f>Algemeen!A17</f>
+        <v>Alternatief scenario</v>
+      </c>
+      <c r="B8" s="11" t="str">
+        <f>Algemeen!B17</f>
+        <v>[Geen projecten beschikbaar]
+1. Systeem laat de melding zien "geen projecten beschikbaar"</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>